--- a/medicine/Handicap/Pentalogie_de_Fallot/Pentalogie_de_Fallot.xlsx
+++ b/medicine/Handicap/Pentalogie_de_Fallot/Pentalogie_de_Fallot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de pentalogie de Fallot désigne classiquement une malformation cardiaque congénitale associant à une tétralogie de Fallot la présence d'une communication inter-auriculaire (CIA) c'est-à-dire entre les oreillettes. En fait, il est de moins en moins usité au profit de "Tétralogie de Fallot associée à une CIA" tant cette association est fréquente.
 Le nom de la pathologie est associé à Étienne-Louis Arthur Fallot bien que ce ne soit pas lui qu'il l'ait rapportée pour la première fois. Toutefois, la similarité avec la tétralogie fait que la référence à Fallot a été conservée.
